--- a/inputs/dap/Analysis indicators.xlsx
+++ b/inputs/dap/Analysis indicators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mh1\REACH\COVID_19\bgd_covid19\inputs\dap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094AD0BD-9293-45BE-9097-C22EC38D12BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72219F92-5120-455E-A5E3-7AF2AB3D5B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{64AAA087-58C6-4AA0-911F-BD410CAC6CA2}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$121</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="253">
   <si>
     <t>Indicator</t>
   </si>
@@ -1196,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0582BD36-ED71-42E0-B46F-6E59E7D299DA}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1246,13 +1249,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>252</v>
       </c>
     </row>
@@ -1290,10 +1293,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1334,13 +1337,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1378,13 +1381,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1422,13 +1425,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1466,13 +1469,13 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1510,13 +1513,13 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1554,13 +1557,13 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1598,13 +1601,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1642,13 +1645,13 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1686,13 +1689,13 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2544,6 +2547,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D121" xr:uid="{A86A245D-90BE-4929-BB1D-E111ADAFE911}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2552,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F1EF4F-CE12-47FC-A8A2-25443046BEAD}">
-  <dimension ref="B6:C38"/>
+  <dimension ref="B6:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2577,7 +2581,7 @@
         <v>114</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C38" si="0">CHAR(34)&amp;B7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="C7:C56" si="0">CHAR(34)&amp;B7&amp;CHAR(34)&amp;","</f>
         <v>"restocking_time_of_rice",</v>
       </c>
     </row>
@@ -2846,6 +2850,159 @@
       <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>"tarpaulin_sale_in_past_week",</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>"vendors_operational",</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>"price_of_1kg",</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>"cheapest_price_for_cooking_oil",</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>"cheapest_price_for_1kg_of_lentils",</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>"cheapest_price_for_0.5kg_of_leafy_greens",</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>"cheapest_price_for_1kg_of_bananas",</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>"cheapest_price_for_12__of_eggs",</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>"cheapest_price_for_1kg__of_fish",</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>"cheapest_price_for_100g_soap_bar_of_soap",</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B51" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>"cheapest_price_for_0_5l_of_bleachwashing_powder",</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>"cheapest_price_for_12_of_paracetamol",</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>"days_of_stock_of_paracetamol",</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B54" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>"restocking_time_of_paracetamol",</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B55" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>"cheapest_price_for_4mx5m_of_tarpaulin",</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B56" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>"vendors_colsed",</v>
       </c>
     </row>
   </sheetData>
